--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SubtotalsOmitted/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SubtotalsOmitted/outputfile.xlsx
@@ -162,38 +162,27 @@
         <x:item x="4"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Country" axis="axisRow" showAll="0">
-      <x:items count="5">
+    <x:pivotField name="Country" axis="axisRow" subtotalTop="0" showAll="0" sumSubtotal="1" countASubtotal="1" avgSubtotal="1">
+      <x:items count="7">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
         <x:item x="3"/>
-        <x:item t="default"/>
+        <x:item t="sum"/>
+        <x:item t="countA"/>
+        <x:item t="avg"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="NumberOfOrders" dataField="1">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Quality">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Month" axis="axisRow" showAll="0">
-      <x:items count="4">
+    <x:pivotField name="NumberOfOrders" dataField="1"/>
+    <x:pivotField name="Quality"/>
+    <x:pivotField name="Month" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <x:items count="3">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
-        <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="BakeDate">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
+    <x:pivotField name="BakeDate"/>
   </x:pivotFields>
   <x:rowFields count="3">
     <x:field x="0"/>
